--- a/Testdata/gmail.xlsx
+++ b/Testdata/gmail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Excelforjenkins\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,13 +35,13 @@
     <t>Login</t>
   </si>
   <si>
-    <t>vikramqa01@gmail.com</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Saibaba@123</t>
+    <t>selenium456@gmail.com</t>
+  </si>
+  <si>
+    <t>selenium123</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -470,8 +470,6 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
